--- a/reports/modifier_impact_TS_Speck.xlsx
+++ b/reports/modifier_impact_TS_Speck.xlsx
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.167</v>
+        <v>0.156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.291</v>
+        <v>0.305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6">
@@ -533,17 +533,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-0.634, 0.704)</t>
+          <t>(-0.625, 0.653)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-25.084, 22.081)</t>
+          <t>(-25.146, 21.846)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(-36.011, 40.821)</t>
+          <t>(-35.64, 40.682)</t>
         </is>
       </c>
     </row>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -603,17 +603,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(-9.05, 11.483)</t>
+          <t>(-8.867, 11.483)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(-6.262, 7.821)</t>
+          <t>(-9.512, 7.821)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-1.867, 1.617)</t>
+          <t>(-1.683, 1.617)</t>
         </is>
       </c>
     </row>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.837</v>
+        <v>0.848</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.002</v>
@@ -673,17 +673,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(-19.767, 19.283)</t>
+          <t>(-18.855, 19.292)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(-99.714, 96.555)</t>
+          <t>(-93.57, 97.777)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(-404.7, 461.367)</t>
+          <t>(-402.5, 487.95)</t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.619</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="18">
@@ -743,12 +743,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(-9.3, 11.605)</t>
+          <t>(-9.3, 12.333)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(-8.726, 8.147)</t>
+          <t>(-8.726, 8.298)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">

--- a/reports/modifier_impact_TS_Speck.xlsx
+++ b/reports/modifier_impact_TS_Speck.xlsx
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.817582769665145</v>
+        <v>1.721840064338915</v>
       </c>
       <c r="C4" t="n">
-        <v>6.858920075785547</v>
+        <v>2.999934860173426</v>
       </c>
       <c r="D4" t="n">
-        <v>6.319763149300972</v>
+        <v>4.268331163776551</v>
       </c>
     </row>
     <row r="5">
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.156</v>
+        <v>0.119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305</v>
+        <v>0.137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6">
@@ -533,17 +533,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-0.625, 0.653)</t>
+          <t>(0.032, 1.184)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-25.146, 21.846)</t>
+          <t>(-0.785, 38.595)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(-35.64, 40.682)</t>
+          <t>(43.551, 77.748)</t>
         </is>
       </c>
     </row>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.91666666666667</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>20.08333333333333</v>
+        <v>20.7</v>
       </c>
       <c r="D8" t="n">
         <v>4.5</v>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="10">
@@ -603,17 +603,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(-8.867, 11.483)</t>
+          <t>(-18.8, -17.3)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(-9.512, 7.821)</t>
+          <t>(-15.071, -14.357)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-1.683, 1.617)</t>
+          <t>(-3.3, -2.0)</t>
         </is>
       </c>
     </row>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.66666666666666</v>
+        <v>37.8</v>
       </c>
       <c r="C12" t="n">
-        <v>41.16666666666666</v>
+        <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>151.9166666666667</v>
+        <v>169.2</v>
       </c>
     </row>
     <row r="13">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.848</v>
+        <v>0.62</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="14">
@@ -673,17 +673,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(-18.855, 19.292)</t>
+          <t>(-29.0, 16.7)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(-93.57, 97.777)</t>
+          <t>(101.711, 187.714)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(-402.5, 487.95)</t>
+          <t>(440.5, 827.9)</t>
         </is>
       </c>
     </row>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.66666666666667</v>
+        <v>18.7</v>
       </c>
       <c r="C16" t="n">
-        <v>13.16666666666667</v>
+        <v>14.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -743,17 +743,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(-9.3, 12.333)</t>
+          <t>(-19.5, -16.9)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(-8.726, 8.298)</t>
+          <t>(-20.643, -14.571)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(-0.283, 0.267)</t>
+          <t>(-0.3, 0.3)</t>
         </is>
       </c>
     </row>

--- a/reports/modifier_impact_TS_Speck.xlsx
+++ b/reports/modifier_impact_TS_Speck.xlsx
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.119</v>
+        <v>0.102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6">
@@ -533,17 +533,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.032, 1.184)</t>
+          <t>(-0.091, 1.085)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-0.785, 38.595)</t>
+          <t>(-2.208, 24.55)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(43.551, 77.748)</t>
+          <t>(11.426, 54.521)</t>
         </is>
       </c>
     </row>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -603,17 +603,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(-18.8, -17.3)</t>
+          <t>(5.3, 15.7)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(-15.071, -14.357)</t>
+          <t>(7.125, 14.208)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-3.3, -2.0)</t>
+          <t>(1.15, 2.25)</t>
         </is>
       </c>
     </row>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.62</v>
+        <v>0.659</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="14">
@@ -673,17 +673,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(-29.0, 16.7)</t>
+          <t>(23.45, 43.6)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(101.711, 187.714)</t>
+          <t>(80.248, 175.833)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(440.5, 827.9)</t>
+          <t>(258.899, 688.352)</t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="18">
@@ -743,17 +743,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(-19.5, -16.9)</t>
+          <t>(2.75, 13.35)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(-20.643, -14.571)</t>
+          <t>(1.208, 9.458)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(-0.3, 0.3)</t>
+          <t>(-0.95, -0.25)</t>
         </is>
       </c>
     </row>

--- a/reports/modifier_impact_TS_Speck.xlsx
+++ b/reports/modifier_impact_TS_Speck.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102</v>
+        <v>0.097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.139</v>
+        <v>0.132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6">
@@ -533,17 +533,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-0.091, 1.085)</t>
+          <t>(-0.085, 1.085)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-2.208, 24.55)</t>
+          <t>(-2.37, 24.552)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(11.426, 54.521)</t>
+          <t>(11.555, 54.501)</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -603,12 +603,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(5.3, 15.7)</t>
+          <t>(5.35, 15.7)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(7.125, 14.208)</t>
+          <t>(7.083, 14.208)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.659</v>
+        <v>0.647</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D13" t="n">
         <v>0.003</v>
@@ -673,17 +673,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(23.45, 43.6)</t>
+          <t>(23.4, 43.4)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(80.248, 175.833)</t>
+          <t>(80.5, 175.252)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(258.899, 688.352)</t>
+          <t>(258.695, 690.501)</t>
         </is>
       </c>
     </row>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.453</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="18">
@@ -743,12 +743,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(2.75, 13.35)</t>
+          <t>(2.8, 13.4)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(1.208, 9.458)</t>
+          <t>(1.417, 9.542)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">

--- a/reports/modifier_impact_TS_Speck.xlsx
+++ b/reports/modifier_impact_TS_Speck.xlsx
@@ -487,7 +487,7 @@
         <v>2.329856605250468</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2693737580545</v>
+        <v>5.449850534003569</v>
       </c>
       <c r="D3" t="n">
         <v>66.30113097618096</v>
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.097</v>
+        <v>0.11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.132</v>
+        <v>0.008</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -533,17 +533,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-0.085, 1.085)</t>
+          <t>(-0.071, 1.092)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-2.37, 24.552)</t>
+          <t>(1.481, 3.943)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(11.555, 54.501)</t>
+          <t>(11.597, 54.503)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5.928571428571429</v>
+        <v>5.9</v>
       </c>
       <c r="D7" t="n">
         <v>1.9</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -603,17 +603,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(5.35, 15.7)</t>
+          <t>(5.4, 15.7)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(7.083, 14.208)</t>
+          <t>(7.6, 16.0)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(1.15, 2.25)</t>
+          <t>(1.15, 2.3)</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
         <v>32.5</v>
       </c>
       <c r="C11" t="n">
-        <v>191.8571428571429</v>
+        <v>198.4</v>
       </c>
       <c r="D11" t="n">
         <v>803.4</v>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.647</v>
+        <v>0.639</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14">
@@ -673,17 +673,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(23.4, 43.4)</t>
+          <t>(23.35, 43.45)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(80.5, 175.252)</t>
+          <t>(63.4, 172.4)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(258.695, 690.501)</t>
+          <t>(263.596, 689.306)</t>
         </is>
       </c>
     </row>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D17" t="n">
-        <v>0.445</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="18">
@@ -743,17 +743,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(2.8, 13.4)</t>
+          <t>(2.8, 13.3)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(1.417, 9.542)</t>
+          <t>(1.75, 11.05)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(-0.95, -0.25)</t>
+          <t>(-0.9, -0.25)</t>
         </is>
       </c>
     </row>
